--- a/data/trans_dic/P19E_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Estudios-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.5255560857325626</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.474862460814535</v>
+        <v>0.4748624608145349</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.4022239672580709</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.490904988287025</v>
+        <v>0.4885607300010359</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4332152931736302</v>
+        <v>0.4325826231836315</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3687052402953876</v>
+        <v>0.3682106997860469</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.327152200350239</v>
+        <v>0.3259895618834231</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4293972033648361</v>
+        <v>0.4326624702250736</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3806820930964147</v>
+        <v>0.3787736509063312</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5626709019807884</v>
+        <v>0.5618301957232333</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5177953688399316</v>
+        <v>0.5173466707100279</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.43580270423467</v>
+        <v>0.4324866360136881</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3768135307022986</v>
+        <v>0.3783694964763268</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4798503911359432</v>
+        <v>0.4791240323320439</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.425844678872324</v>
+        <v>0.4233864359950498</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.323511678758233</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2301138553049334</v>
+        <v>0.2301138553049335</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1981245677045022</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2995937672311423</v>
+        <v>0.3033908659266178</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2115204922980151</v>
+        <v>0.2112731950804969</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1796294350890901</v>
+        <v>0.1805723599821251</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1180462054462958</v>
+        <v>0.1181327040333812</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2480256765576014</v>
+        <v>0.2475143684462912</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1698189119465421</v>
+        <v>0.1691184377878882</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3439477318471846</v>
+        <v>0.345174064005201</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2500472019676333</v>
+        <v>0.2502857642727613</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2147483109626049</v>
+        <v>0.2177944820152601</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1434079050844267</v>
+        <v>0.1420663286923235</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2773488913881942</v>
+        <v>0.2747701709493728</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1929489233361277</v>
+        <v>0.193184901305342</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.1050294236362964</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0757173782097625</v>
+        <v>0.07571737820976251</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.152911141265716</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1616106227639295</v>
+        <v>0.1657410005898257</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1168115846707298</v>
+        <v>0.1168849391021228</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0807451070779507</v>
+        <v>0.08231277196902018</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05871177132189915</v>
+        <v>0.05977375579373351</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1306973163802436</v>
+        <v>0.1308838577442303</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09442208619719307</v>
+        <v>0.09335105195636619</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2385277264487158</v>
+        <v>0.2411394720867768</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1762126088184782</v>
+        <v>0.1740483181229455</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1319061324226349</v>
+        <v>0.1354263920125097</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0936262690704136</v>
+        <v>0.0963211988473161</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1772503460704619</v>
+        <v>0.1769771127747194</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1276133345701086</v>
+        <v>0.1273465041680343</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>0.2922777426568619</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.2088017740973173</v>
+        <v>0.2088017740973171</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3297633767236451</v>
+        <v>0.3295263213201785</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2375494425427312</v>
+        <v>0.2377326383563914</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2259367102095954</v>
+        <v>0.2253297894521047</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1580909462979926</v>
+        <v>0.1568240010636502</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2812016843582985</v>
+        <v>0.2808694312271284</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1995431204535714</v>
+        <v>0.2001892066582456</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3640156553074694</v>
+        <v>0.3646660345414026</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2686919756723989</v>
+        <v>0.2680357158797799</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2549275865700456</v>
+        <v>0.2552112199390195</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1790917964079623</v>
+        <v>0.1779584720061171</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.303845081044338</v>
+        <v>0.3032755507228262</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2183503961963026</v>
+        <v>0.2186498105930961</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>350282</v>
+        <v>348609</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>246843</v>
+        <v>246482</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>350732</v>
+        <v>350262</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>263430</v>
+        <v>262494</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>714859</v>
+        <v>720295</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>523444</v>
+        <v>520819</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>401490</v>
+        <v>400890</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>295036</v>
+        <v>294780</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>414559</v>
+        <v>411405</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>303419</v>
+        <v>304672</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>798853</v>
+        <v>797644</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>585543</v>
+        <v>582163</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>607691</v>
+        <v>615393</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>470082</v>
+        <v>469532</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>349858</v>
+        <v>351694</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>255791</v>
+        <v>255978</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>986162</v>
+        <v>984129</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>745380</v>
+        <v>742305</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>697657</v>
+        <v>700145</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>555703</v>
+        <v>556234</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>418258</v>
+        <v>424191</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>310746</v>
+        <v>307839</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1102752</v>
+        <v>1092499</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>846904</v>
+        <v>847940</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>87158</v>
+        <v>89386</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>83037</v>
+        <v>83089</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>43948</v>
+        <v>44801</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>43112</v>
+        <v>43892</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>141623</v>
+        <v>141825</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>136456</v>
+        <v>134908</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>128641</v>
+        <v>130049</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>125263</v>
+        <v>123724</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>71794</v>
+        <v>73710</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>68750</v>
+        <v>70729</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>192067</v>
+        <v>191771</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>184422</v>
+        <v>184037</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1082031</v>
+        <v>1081254</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>832147</v>
+        <v>832788</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>777945</v>
+        <v>775856</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>585948</v>
+        <v>581252</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1890923</v>
+        <v>1888689</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1438595</v>
+        <v>1443253</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1194421</v>
+        <v>1196555</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>941240</v>
+        <v>938941</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>877767</v>
+        <v>878743</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>663785</v>
+        <v>659585</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2043187</v>
+        <v>2039357</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1574185</v>
+        <v>1576344</v>
       </c>
     </row>
     <row r="20">
